--- a/data/NBA Team Annual Attendance.xlsx
+++ b/data/NBA Team Annual Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannanajmal/OneDrive/Documents/201/INFO-201-Group-1/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordan/Documents/Coding/INFO-201-Group-1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_ABCEA29246DC6E65A18F59DFC493A0D78E620538" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9AB3C034-D2F0-FD4A-8D56-FD8C58C72D06}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7800490-03DD-CC4F-9AA3-73030D03E751}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="43">
   <si>
     <t>Rank</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Start Year</t>
+  </si>
+  <si>
+    <t>Knicks</t>
   </si>
 </sst>
 </file>
@@ -506,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K477"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -705,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>41</v>
@@ -1720,7 +1723,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D35" s="1">
         <v>41</v>
@@ -2735,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D64" s="1">
         <v>41</v>
@@ -3925,7 +3928,7 @@
         <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D98" s="1">
         <v>41</v>
@@ -4905,7 +4908,7 @@
         <v>5</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D126" s="1">
         <v>33</v>
@@ -5990,7 +5993,7 @@
         <v>6</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D157" s="1">
         <v>41</v>
@@ -7005,7 +7008,7 @@
         <v>5</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D186" s="1">
         <v>41</v>
@@ -8125,7 +8128,7 @@
         <v>7</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D218" s="1">
         <v>41</v>
